--- a/results/mp/deberta/corona/confidence/84/stop-words-topk-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/84/stop-words-topk-0.15/avg_0.003_scores.xlsx
@@ -88,12 +88,12 @@
     <t>positive</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
@@ -109,10 +109,10 @@
     <t>safe</t>
   </si>
   <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>hope</t>
   </si>
   <si>
     <t>heroes</t>
@@ -1022,13 +1022,13 @@
         <v>24</v>
       </c>
       <c r="K15">
-        <v>0.6565217391304348</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="L15">
-        <v>151</v>
+        <v>30</v>
       </c>
       <c r="M15">
-        <v>160</v>
+        <v>32</v>
       </c>
       <c r="N15">
         <v>0.9399999999999999</v>
@@ -1040,7 +1040,7 @@
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1048,25 +1048,25 @@
         <v>25</v>
       </c>
       <c r="K16">
-        <v>0.6521739130434783</v>
+        <v>0.6317991631799164</v>
       </c>
       <c r="L16">
-        <v>30</v>
+        <v>151</v>
       </c>
       <c r="M16">
-        <v>32</v>
+        <v>151</v>
       </c>
       <c r="N16">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>16</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1204,25 +1204,25 @@
         <v>31</v>
       </c>
       <c r="K22">
-        <v>0.5579268292682927</v>
+        <v>0.546875</v>
       </c>
       <c r="L22">
-        <v>183</v>
+        <v>35</v>
       </c>
       <c r="M22">
-        <v>195</v>
+        <v>36</v>
       </c>
       <c r="N22">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="O22">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P22" t="b">
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>145</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1230,25 +1230,25 @@
         <v>32</v>
       </c>
       <c r="K23">
-        <v>0.546875</v>
+        <v>0.538235294117647</v>
       </c>
       <c r="L23">
-        <v>35</v>
+        <v>183</v>
       </c>
       <c r="M23">
-        <v>36</v>
+        <v>183</v>
       </c>
       <c r="N23">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>29</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="10:17">
